--- a/UTS/slang.xlsx
+++ b/UTS/slang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\SEMESTER 6\TEXT MINING\Tubes\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E20307-A3CF-4DD7-9B02-167F2B5B8472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E54A33-E55E-4564-ABFA-4B3125DCD60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="2319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="2342">
   <si>
     <t>Slang</t>
   </si>
@@ -6993,6 +6993,75 @@
   </si>
   <si>
     <t>ekonomiaman</t>
+  </si>
+  <si>
+    <t>yap</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>kebawah</t>
+  </si>
+  <si>
+    <t>di dalam</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>ekonomi</t>
+  </si>
+  <si>
+    <t>wong</t>
+  </si>
+  <si>
+    <t>bendino</t>
+  </si>
+  <si>
+    <t>yaolo</t>
+  </si>
+  <si>
+    <t>yaalllah</t>
+  </si>
+  <si>
+    <t>desekan</t>
+  </si>
+  <si>
+    <t>desakan</t>
+  </si>
+  <si>
+    <t>ngadek</t>
+  </si>
+  <si>
+    <t>berdiri</t>
+  </si>
+  <si>
+    <t>last time</t>
+  </si>
+  <si>
+    <t>waktu terakhir</t>
+  </si>
+  <si>
+    <t>mamam</t>
+  </si>
+  <si>
+    <t>brp</t>
+  </si>
+  <si>
+    <t>rupiahcepat</t>
+  </si>
+  <si>
+    <t>rupiah cepat</t>
+  </si>
+  <si>
+    <t>indonesiagelap</t>
+  </si>
+  <si>
+    <t>indonesia gelap</t>
   </si>
 </sst>
 </file>
@@ -7378,10 +7447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0566-B632-4F83-AEF7-ED55DFA573A5}">
-  <dimension ref="A1:B1658"/>
+  <dimension ref="A1:B1675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1640" workbookViewId="0">
-      <selection activeCell="A1652" sqref="A1652"/>
+    <sheetView tabSelected="1" topLeftCell="A1657" workbookViewId="0">
+      <selection activeCell="B1676" sqref="B1676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20654,6 +20723,142 @@
         <v>2317</v>
       </c>
     </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1659" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1660" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1661" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1662" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1663" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1664" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1665" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1666" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1667" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1668" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1669" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1670" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1671" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1672" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1673" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1674" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1675" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>2341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UTS/slang.xlsx
+++ b/UTS/slang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\SEMESTER 6\TEXT MINING\Tubes\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E54A33-E55E-4564-ABFA-4B3125DCD60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5B5F8-9488-46BA-B328-B33281E47E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
+    <workbookView xWindow="9510" yWindow="5400" windowWidth="9780" windowHeight="5490" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="2342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="2432">
   <si>
     <t>Slang</t>
   </si>
@@ -7062,6 +7062,276 @@
   </si>
   <si>
     <t>indonesia gelap</t>
+  </si>
+  <si>
+    <t>lemahh</t>
+  </si>
+  <si>
+    <t>lemah</t>
+  </si>
+  <si>
+    <t>njirrr</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>penilaian</t>
+  </si>
+  <si>
+    <t>gilaknya</t>
+  </si>
+  <si>
+    <t>gilanya</t>
+  </si>
+  <si>
+    <t>literally</t>
+  </si>
+  <si>
+    <t>ttd</t>
+  </si>
+  <si>
+    <t>tanda tangan</t>
+  </si>
+  <si>
+    <t>sebenernya</t>
+  </si>
+  <si>
+    <t>sebenarnya</t>
+  </si>
+  <si>
+    <t>sepaknye</t>
+  </si>
+  <si>
+    <t>sepak</t>
+  </si>
+  <si>
+    <t>ape</t>
+  </si>
+  <si>
+    <t>mane</t>
+  </si>
+  <si>
+    <t>kidz</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>mengikuti</t>
+  </si>
+  <si>
+    <t>waspada</t>
+  </si>
+  <si>
+    <t>moga</t>
+  </si>
+  <si>
+    <t>gamau</t>
+  </si>
+  <si>
+    <t>tidak mau</t>
+  </si>
+  <si>
+    <t>rame</t>
+  </si>
+  <si>
+    <t>mending</t>
+  </si>
+  <si>
+    <t>lebih baik</t>
+  </si>
+  <si>
+    <t>nunggu</t>
+  </si>
+  <si>
+    <t>menunggu</t>
+  </si>
+  <si>
+    <t>turunbeli</t>
+  </si>
+  <si>
+    <t>turun beli</t>
+  </si>
+  <si>
+    <t>yesss</t>
+  </si>
+  <si>
+    <t>cabe</t>
+  </si>
+  <si>
+    <t>cabai</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>peringatan</t>
+  </si>
+  <si>
+    <t>cba</t>
+  </si>
+  <si>
+    <t>printah</t>
+  </si>
+  <si>
+    <t>perintah</t>
+  </si>
+  <si>
+    <t>ribujam</t>
+  </si>
+  <si>
+    <t>ribu jam</t>
+  </si>
+  <si>
+    <t>dropshipping</t>
+  </si>
+  <si>
+    <t>mengirim barang</t>
+  </si>
+  <si>
+    <t>ribuhari</t>
+  </si>
+  <si>
+    <t>ribu hari</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>bank indonesia</t>
+  </si>
+  <si>
+    <t>ahir</t>
+  </si>
+  <si>
+    <t>aju</t>
+  </si>
+  <si>
+    <t>nuhun</t>
+  </si>
+  <si>
+    <t>bleh</t>
+  </si>
+  <si>
+    <t>pemimpinbersih</t>
+  </si>
+  <si>
+    <t>pemimpin bersih</t>
+  </si>
+  <si>
+    <t>smangat</t>
+  </si>
+  <si>
+    <t>rupiahgaada</t>
+  </si>
+  <si>
+    <t>rupiah tidak ada</t>
+  </si>
+  <si>
+    <t>ngekeep</t>
+  </si>
+  <si>
+    <t>menjaga</t>
+  </si>
+  <si>
+    <t>orangorang</t>
+  </si>
+  <si>
+    <t>orang orang</t>
+  </si>
+  <si>
+    <t>dfr</t>
+  </si>
+  <si>
+    <t>daftar</t>
+  </si>
+  <si>
+    <t>kalauk</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>menurun</t>
+  </si>
+  <si>
+    <t>gwh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>istimewa</t>
+  </si>
+  <si>
+    <t>ogah</t>
+  </si>
+  <si>
+    <t>ngirit</t>
+  </si>
+  <si>
+    <t>menghemat</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>akun</t>
+  </si>
+  <si>
+    <t>ambles</t>
+  </si>
+  <si>
+    <t>indonesiatangguh</t>
+  </si>
+  <si>
+    <t>indonesia tangguh</t>
+  </si>
+  <si>
+    <t>ekonomiindonesia</t>
+  </si>
+  <si>
+    <t>ekonomi indonesia</t>
+  </si>
+  <si>
+    <t>ekonomiindonesiakuat</t>
+  </si>
+  <si>
+    <t>ekonomi indonesia kuat</t>
+  </si>
+  <si>
+    <t>babi</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>bajingan</t>
+  </si>
+  <si>
+    <t>siapaaa</t>
+  </si>
+  <si>
+    <t>depresiasi</t>
+  </si>
+  <si>
+    <t>depresi</t>
+  </si>
+  <si>
+    <t>utang</t>
+  </si>
+  <si>
+    <t>hutang</t>
   </si>
 </sst>
 </file>
@@ -7447,15 +7717,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0566-B632-4F83-AEF7-ED55DFA573A5}">
-  <dimension ref="A1:B1675"/>
+  <dimension ref="A1:B1732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1657" workbookViewId="0">
-      <selection activeCell="B1676" sqref="B1676"/>
+    <sheetView tabSelected="1" topLeftCell="A1730" workbookViewId="0">
+      <selection activeCell="B1732" sqref="B1732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20859,6 +21129,453 @@
         <v>2341</v>
       </c>
     </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1676" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1677" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1678" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1679" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1680" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1681" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1682" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1683" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1684" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1685" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1686" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1687" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1688" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1689" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1690" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1691" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1692" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1693" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1694" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1695" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1696" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1697" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1698" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1699" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1700" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1701" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1702" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1703" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1704" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1705" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1706" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1707" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1708" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1709" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1710" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1711" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1712" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1713" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1714" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1715" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1716" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1717" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1718" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1719" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1720" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1721" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1722" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1723" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1724" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1725" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1726" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1727" t="s">
+        <v>963</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1728" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1729" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1730" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1731" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1732" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>2431</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UTS/slang.xlsx
+++ b/UTS/slang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\SEMESTER 6\TEXT MINING\Tubes\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5B5F8-9488-46BA-B328-B33281E47E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25757AE-5307-4DAE-B608-099A051FFA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="5400" windowWidth="9780" windowHeight="5490" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="2432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="2433">
   <si>
     <t>Slang</t>
   </si>
@@ -7332,6 +7332,9 @@
   </si>
   <si>
     <t>hutang</t>
+  </si>
+  <si>
+    <t>stasiun</t>
   </si>
 </sst>
 </file>
@@ -7719,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0566-B632-4F83-AEF7-ED55DFA573A5}">
   <dimension ref="A1:B1732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1730" workbookViewId="0">
-      <selection activeCell="B1732" sqref="B1732"/>
+    <sheetView tabSelected="1" topLeftCell="A1597" workbookViewId="0">
+      <selection activeCell="B1687" sqref="B1687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21141,6 +21144,9 @@
       <c r="A1677" t="s">
         <v>2344</v>
       </c>
+      <c r="B1677" t="s">
+        <v>2426</v>
+      </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1678" t="s">
@@ -21162,6 +21168,9 @@
       <c r="A1680" t="s">
         <v>2349</v>
       </c>
+      <c r="B1680" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1681" t="s">
@@ -21214,6 +21223,9 @@
     <row r="1687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1687" t="s">
         <v>2359</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>2432</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.35">

--- a/UTS/slang.xlsx
+++ b/UTS/slang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\SEMESTER 6\TEXT MINING\Tubes\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25757AE-5307-4DAE-B608-099A051FFA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33C9AA-4D60-499D-A1C1-F34C2836F1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="2491">
   <si>
     <t>Slang</t>
   </si>
@@ -7335,6 +7335,180 @@
   </si>
   <si>
     <t>stasiun</t>
+  </si>
+  <si>
+    <t>lemahhh</t>
+  </si>
+  <si>
+    <t>milion</t>
+  </si>
+  <si>
+    <t>ngurus</t>
+  </si>
+  <si>
+    <t>mengurus</t>
+  </si>
+  <si>
+    <t>matawang</t>
+  </si>
+  <si>
+    <t>mata uang</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>smnagat</t>
+  </si>
+  <si>
+    <t>rungkad</t>
+  </si>
+  <si>
+    <t>edannnn</t>
+  </si>
+  <si>
+    <t>cokkkkk</t>
+  </si>
+  <si>
+    <t>naon</t>
+  </si>
+  <si>
+    <t>iyeuuu</t>
+  </si>
+  <si>
+    <t>ajh</t>
+  </si>
+  <si>
+    <t>neh</t>
+  </si>
+  <si>
+    <t>ninggalin</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>bnrn</t>
+  </si>
+  <si>
+    <t>berbondongbonfong</t>
+  </si>
+  <si>
+    <t>berbondong bondong</t>
+  </si>
+  <si>
+    <t>seberpengaruh</t>
+  </si>
+  <si>
+    <t>pengaruh</t>
+  </si>
+  <si>
+    <t>naek</t>
+  </si>
+  <si>
+    <t>lumayaaaan</t>
+  </si>
+  <si>
+    <t>mninggalk</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>blokir</t>
+  </si>
+  <si>
+    <t>typing</t>
+  </si>
+  <si>
+    <t>ketikan</t>
+  </si>
+  <si>
+    <t>wdyt</t>
+  </si>
+  <si>
+    <t>apa yang kamu pikirkan</t>
+  </si>
+  <si>
+    <t>damnnn</t>
+  </si>
+  <si>
+    <t>yess</t>
+  </si>
+  <si>
+    <t>bkn</t>
+  </si>
+  <si>
+    <t>kemenangangagal</t>
+  </si>
+  <si>
+    <t>kemenangan gagal</t>
+  </si>
+  <si>
+    <t>penghasiluang</t>
+  </si>
+  <si>
+    <t>penghasil uang</t>
+  </si>
+  <si>
+    <t>saving</t>
+  </si>
+  <si>
+    <t>simpanan</t>
+  </si>
+  <si>
+    <t>gasemudah</t>
+  </si>
+  <si>
+    <t>tidak mudah</t>
+  </si>
+  <si>
+    <t>mapuluh</t>
+  </si>
+  <si>
+    <t>lima puluh</t>
+  </si>
+  <si>
+    <t>bangsattttt</t>
+  </si>
+  <si>
+    <t>njinggggg</t>
+  </si>
+  <si>
+    <t>anjinggggg</t>
+  </si>
+  <si>
+    <t>jir</t>
+  </si>
+  <si>
+    <t>serangcerdaspilihnya</t>
+  </si>
+  <si>
+    <t>serang cerdas pilihnya</t>
+  </si>
+  <si>
+    <t>pilihyangbersih</t>
+  </si>
+  <si>
+    <t>cobloskosongsatu</t>
+  </si>
+  <si>
+    <t>coblos kosong satu</t>
+  </si>
+  <si>
+    <t>pilih yang bersih</t>
+  </si>
+  <si>
+    <t>gr gr</t>
+  </si>
+  <si>
+    <t>gara gara</t>
+  </si>
+  <si>
+    <t>pergimigranpulangjuragan</t>
+  </si>
+  <si>
+    <t>pergi migran pulang juragan</t>
   </si>
 </sst>
 </file>
@@ -7720,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0566-B632-4F83-AEF7-ED55DFA573A5}">
-  <dimension ref="A1:B1732"/>
+  <dimension ref="A1:B1774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1597" workbookViewId="0">
-      <selection activeCell="B1687" sqref="B1687"/>
+    <sheetView tabSelected="1" topLeftCell="A1611" workbookViewId="0">
+      <selection activeCell="B1775" sqref="B1775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21588,6 +21762,342 @@
         <v>2431</v>
       </c>
     </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1733" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1734" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1735" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1736" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1737" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1738" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1739" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1740" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1741" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1742" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1743" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1744" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1745" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1746" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1747" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1748" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1749" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1750" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1751" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1752" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1753" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1754" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1755" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1756" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1757" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1758" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1759" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1760" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1761" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1762" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1763" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1764" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1765" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1766" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1767" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1768" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1769" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1770" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1771" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1772" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1773" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1774" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>2490</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UTS/slang.xlsx
+++ b/UTS/slang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\SEMESTER 6\TEXT MINING\Tubes\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90BB82-F4EA-4944-BE8B-74BB94BD672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834C8476-609A-4690-A746-DB229B3009A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11286" uniqueCount="7938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11370" uniqueCount="7998">
   <si>
     <t>Slang</t>
   </si>
@@ -23850,6 +23850,186 @@
   </si>
   <si>
     <t>wasu</t>
+  </si>
+  <si>
+    <t>yabeda</t>
+  </si>
+  <si>
+    <t>iya beda</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>yash</t>
+  </si>
+  <si>
+    <t>yaallaj</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>singapura</t>
+  </si>
+  <si>
+    <t>featured</t>
+  </si>
+  <si>
+    <t>fitur</t>
+  </si>
+  <si>
+    <t>shibal</t>
+  </si>
+  <si>
+    <t>ck</t>
+  </si>
+  <si>
+    <t>pricey</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>tetapi</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>besar</t>
+  </si>
+  <si>
+    <t>ratarata</t>
+  </si>
+  <si>
+    <t>noh</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>lawan</t>
+  </si>
+  <si>
+    <t>meledag</t>
+  </si>
+  <si>
+    <t>meledak</t>
+  </si>
+  <si>
+    <t>gapaoa</t>
+  </si>
+  <si>
+    <t>tidak apa apa</t>
+  </si>
+  <si>
+    <t>dipindahin</t>
+  </si>
+  <si>
+    <t>di pindah</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>samsek</t>
+  </si>
+  <si>
+    <t>sama sekali</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>kabinet</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>istirahat</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>uang muka</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>olahraga</t>
+  </si>
+  <si>
+    <t>ina</t>
+  </si>
+  <si>
+    <t>fuaaghhhhh</t>
+  </si>
+  <si>
+    <t>ajig</t>
+  </si>
+  <si>
+    <t>omaygat</t>
+  </si>
+  <si>
+    <t>jafi</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>tengok</t>
+  </si>
+  <si>
+    <t>toleh</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>bintang</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>sesuai</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>indonesian</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>ningkatin</t>
+  </si>
+  <si>
+    <t>tingkat</t>
   </si>
 </sst>
 </file>
@@ -24235,10 +24415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0566-B632-4F83-AEF7-ED55DFA573A5}">
-  <dimension ref="A1:B5643"/>
+  <dimension ref="A1:B5685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5624" workbookViewId="0">
-      <selection activeCell="A5635" sqref="A5635"/>
+    <sheetView tabSelected="1" topLeftCell="A5665" workbookViewId="0">
+      <selection activeCell="B5673" sqref="B5673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69391,6 +69571,342 @@
         <v>805</v>
       </c>
     </row>
+    <row r="5644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5644" t="s">
+        <v>7938</v>
+      </c>
+      <c r="B5644" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="5645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5645" t="s">
+        <v>7940</v>
+      </c>
+      <c r="B5645" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5646" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5646" t="s">
+        <v>7941</v>
+      </c>
+      <c r="B5646" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5647" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5647" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B5647" t="s">
+        <v>7942</v>
+      </c>
+    </row>
+    <row r="5648" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5648" t="s">
+        <v>7943</v>
+      </c>
+      <c r="B5648" t="s">
+        <v>7944</v>
+      </c>
+    </row>
+    <row r="5649" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5649" t="s">
+        <v>7945</v>
+      </c>
+      <c r="B5649" t="s">
+        <v>7946</v>
+      </c>
+    </row>
+    <row r="5650" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5650" t="s">
+        <v>7947</v>
+      </c>
+      <c r="B5650" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5651" t="s">
+        <v>7948</v>
+      </c>
+      <c r="B5651" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="5652" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5652" t="s">
+        <v>7949</v>
+      </c>
+      <c r="B5652" t="s">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="5653" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5653" t="s">
+        <v>7950</v>
+      </c>
+      <c r="B5653" t="s">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="5654" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5654" t="s">
+        <v>7952</v>
+      </c>
+      <c r="B5654" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5655" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5655" t="s">
+        <v>7491</v>
+      </c>
+      <c r="B5655" t="s">
+        <v>7953</v>
+      </c>
+    </row>
+    <row r="5656" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5656" t="s">
+        <v>7954</v>
+      </c>
+      <c r="B5656" t="s">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="5657" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5657" t="s">
+        <v>7955</v>
+      </c>
+      <c r="B5657" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5658" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5658" t="s">
+        <v>7956</v>
+      </c>
+      <c r="B5658" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="5659" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5659" t="s">
+        <v>7958</v>
+      </c>
+      <c r="B5659" t="s">
+        <v>7959</v>
+      </c>
+    </row>
+    <row r="5660" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5660" t="s">
+        <v>7960</v>
+      </c>
+      <c r="B5660" t="s">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="5661" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5661" t="s">
+        <v>7962</v>
+      </c>
+      <c r="B5661" t="s">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="5662" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5662" t="s">
+        <v>7964</v>
+      </c>
+      <c r="B5662" t="s">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="5663" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5663" t="s">
+        <v>7965</v>
+      </c>
+      <c r="B5663" t="s">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="5664" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5664" t="s">
+        <v>7967</v>
+      </c>
+      <c r="B5664" t="s">
+        <v>7968</v>
+      </c>
+    </row>
+    <row r="5665" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5665" t="s">
+        <v>7969</v>
+      </c>
+      <c r="B5665" t="s">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="5666" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5666" t="s">
+        <v>7971</v>
+      </c>
+      <c r="B5666" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5667" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5667" t="s">
+        <v>7972</v>
+      </c>
+      <c r="B5667" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="5668" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5668" t="s">
+        <v>7973</v>
+      </c>
+      <c r="B5668" t="s">
+        <v>7974</v>
+      </c>
+    </row>
+    <row r="5669" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5669" t="s">
+        <v>7975</v>
+      </c>
+      <c r="B5669" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5670" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5670" t="s">
+        <v>7976</v>
+      </c>
+      <c r="B5670" t="s">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5671" t="s">
+        <v>7978</v>
+      </c>
+      <c r="B5671" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="5672" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5672" t="s">
+        <v>7979</v>
+      </c>
+      <c r="B5672" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="5673" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5673" t="s">
+        <v>7980</v>
+      </c>
+      <c r="B5673" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="5674" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5674" t="s">
+        <v>7981</v>
+      </c>
+      <c r="B5674" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5675" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5675" t="s">
+        <v>7982</v>
+      </c>
+      <c r="B5675" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5676" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5676" t="s">
+        <v>7983</v>
+      </c>
+      <c r="B5676" t="s">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="5677" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5677" t="s">
+        <v>7985</v>
+      </c>
+      <c r="B5677" t="s">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5678" t="s">
+        <v>7987</v>
+      </c>
+      <c r="B5678" t="s">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5679" t="s">
+        <v>7988</v>
+      </c>
+      <c r="B5679" t="s">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5680" t="s">
+        <v>7990</v>
+      </c>
+      <c r="B5680" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5681" t="s">
+        <v>7991</v>
+      </c>
+      <c r="B5681" t="s">
+        <v>7992</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5682" t="s">
+        <v>7993</v>
+      </c>
+      <c r="B5682" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5683" t="s">
+        <v>7994</v>
+      </c>
+      <c r="B5683" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5684" t="s">
+        <v>7995</v>
+      </c>
+      <c r="B5684" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5685" t="s">
+        <v>7996</v>
+      </c>
+      <c r="B5685" t="s">
+        <v>7997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UTS/slang.xlsx
+++ b/UTS/slang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\SEMESTER 6\TEXT MINING\Tubes\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834C8476-609A-4690-A746-DB229B3009A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F6392-6FA4-419A-8E4D-71C11A31D3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{BE07A191-01E7-4D5A-A458-2EF7E4AE0484}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11370" uniqueCount="7998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11414" uniqueCount="8026">
   <si>
     <t>Slang</t>
   </si>
@@ -24030,6 +24030,90 @@
   </si>
   <si>
     <t>tingkat</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>sangaaaad</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>tunai</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>supir</t>
+  </si>
+  <si>
+    <t>jah</t>
+  </si>
+  <si>
+    <t>that’s</t>
+  </si>
+  <si>
+    <t>rban</t>
+  </si>
+  <si>
+    <t>ribuan</t>
+  </si>
+  <si>
+    <t>friendshipgaza</t>
+  </si>
+  <si>
+    <t>teman gaza</t>
+  </si>
+  <si>
+    <t>collected</t>
+  </si>
+  <si>
+    <t>mengoleksi</t>
+  </si>
+  <si>
+    <t>thank you so much</t>
+  </si>
+  <si>
+    <t>terima kasih banyak</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>jaminan</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>amblek</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>duls</t>
+  </si>
+  <si>
+    <t>at least</t>
+  </si>
+  <si>
+    <t>kurang lebih</t>
+  </si>
+  <si>
+    <t>anjlok</t>
+  </si>
+  <si>
+    <t>gweh</t>
   </si>
 </sst>
 </file>
@@ -24415,10 +24499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC0566-B632-4F83-AEF7-ED55DFA573A5}">
-  <dimension ref="A1:B5685"/>
+  <dimension ref="A1:B5707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5665" workbookViewId="0">
-      <selection activeCell="B5673" sqref="B5673"/>
+    <sheetView tabSelected="1" topLeftCell="A5691" workbookViewId="0">
+      <selection activeCell="B5707" sqref="B5707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69565,23 +69649,23 @@
     </row>
     <row r="5643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5643" t="s">
-        <v>411</v>
+        <v>7938</v>
       </c>
       <c r="B5643" t="s">
-        <v>805</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="5644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5644" t="s">
-        <v>7938</v>
+        <v>7940</v>
       </c>
       <c r="B5644" t="s">
-        <v>7939</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5645" t="s">
-        <v>7940</v>
+        <v>7941</v>
       </c>
       <c r="B5645" t="s">
         <v>48</v>
@@ -69589,39 +69673,39 @@
     </row>
     <row r="5646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5646" t="s">
-        <v>7941</v>
+        <v>2327</v>
       </c>
       <c r="B5646" t="s">
-        <v>48</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="5647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5647" t="s">
-        <v>2327</v>
+        <v>7943</v>
       </c>
       <c r="B5647" t="s">
-        <v>7942</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="5648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5648" t="s">
-        <v>7943</v>
+        <v>7945</v>
       </c>
       <c r="B5648" t="s">
-        <v>7944</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="5649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5649" t="s">
-        <v>7945</v>
+        <v>7947</v>
       </c>
       <c r="B5649" t="s">
-        <v>7946</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="5650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5650" t="s">
-        <v>7947</v>
+        <v>7948</v>
       </c>
       <c r="B5650" t="s">
         <v>2424</v>
@@ -69629,223 +69713,223 @@
     </row>
     <row r="5651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5651" t="s">
-        <v>7948</v>
+        <v>7949</v>
       </c>
       <c r="B5651" t="s">
-        <v>2424</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="5652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5652" t="s">
-        <v>7949</v>
+        <v>7950</v>
       </c>
       <c r="B5652" t="s">
-        <v>6458</v>
+        <v>7951</v>
       </c>
     </row>
     <row r="5653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5653" t="s">
-        <v>7950</v>
+        <v>7952</v>
       </c>
       <c r="B5653" t="s">
-        <v>7951</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5654" t="s">
-        <v>7952</v>
+        <v>7491</v>
       </c>
       <c r="B5654" t="s">
-        <v>58</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="5655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5655" t="s">
-        <v>7491</v>
+        <v>7954</v>
       </c>
       <c r="B5655" t="s">
-        <v>7953</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="5656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5656" t="s">
-        <v>7954</v>
+        <v>7955</v>
       </c>
       <c r="B5656" t="s">
-        <v>7736</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5657" t="s">
-        <v>7955</v>
+        <v>7956</v>
       </c>
       <c r="B5657" t="s">
-        <v>390</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="5658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5658" t="s">
-        <v>7956</v>
+        <v>7958</v>
       </c>
       <c r="B5658" t="s">
-        <v>7957</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="5659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5659" t="s">
-        <v>7958</v>
+        <v>7960</v>
       </c>
       <c r="B5659" t="s">
-        <v>7959</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="5660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5660" t="s">
-        <v>7960</v>
+        <v>7962</v>
       </c>
       <c r="B5660" t="s">
-        <v>7961</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="5661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5661" t="s">
-        <v>7962</v>
+        <v>7964</v>
       </c>
       <c r="B5661" t="s">
-        <v>7963</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="5662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5662" t="s">
-        <v>7964</v>
+        <v>7965</v>
       </c>
       <c r="B5662" t="s">
-        <v>7736</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="5663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5663" t="s">
-        <v>7965</v>
+        <v>7967</v>
       </c>
       <c r="B5663" t="s">
-        <v>7966</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="5664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5664" t="s">
-        <v>7967</v>
+        <v>7969</v>
       </c>
       <c r="B5664" t="s">
-        <v>7968</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="5665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5665" t="s">
-        <v>7969</v>
+        <v>7971</v>
       </c>
       <c r="B5665" t="s">
-        <v>7970</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5666" t="s">
-        <v>7971</v>
+        <v>7972</v>
       </c>
       <c r="B5666" t="s">
-        <v>250</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="5667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5667" t="s">
-        <v>7972</v>
+        <v>7973</v>
       </c>
       <c r="B5667" t="s">
-        <v>2156</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="5668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5668" t="s">
-        <v>7973</v>
+        <v>7975</v>
       </c>
       <c r="B5668" t="s">
-        <v>7974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5669" t="s">
-        <v>7975</v>
+        <v>7976</v>
       </c>
       <c r="B5669" t="s">
-        <v>981</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="5670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5670" t="s">
-        <v>7976</v>
+        <v>7978</v>
       </c>
       <c r="B5670" t="s">
-        <v>7977</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="5671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5671" t="s">
-        <v>7978</v>
+        <v>7979</v>
       </c>
       <c r="B5671" t="s">
-        <v>1715</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="5672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5672" t="s">
-        <v>7979</v>
+        <v>7980</v>
       </c>
       <c r="B5672" t="s">
-        <v>2424</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5673" t="s">
-        <v>7980</v>
+        <v>7981</v>
       </c>
       <c r="B5673" t="s">
-        <v>963</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="5674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5674" t="s">
-        <v>7981</v>
+        <v>7982</v>
       </c>
       <c r="B5674" t="s">
-        <v>1813</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5675" t="s">
-        <v>7982</v>
+        <v>7983</v>
       </c>
       <c r="B5675" t="s">
-        <v>394</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="5676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5676" t="s">
-        <v>7983</v>
+        <v>7985</v>
       </c>
       <c r="B5676" t="s">
-        <v>7984</v>
+        <v>7986</v>
       </c>
     </row>
     <row r="5677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5677" t="s">
-        <v>7985</v>
+        <v>7987</v>
       </c>
       <c r="B5677" t="s">
-        <v>7986</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="5678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5678" t="s">
-        <v>7987</v>
+        <v>7988</v>
       </c>
       <c r="B5678" t="s">
         <v>7989</v>
@@ -69853,58 +69937,234 @@
     </row>
     <row r="5679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5679" t="s">
-        <v>7988</v>
+        <v>7990</v>
       </c>
       <c r="B5679" t="s">
-        <v>7989</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5680" t="s">
-        <v>7990</v>
+        <v>7991</v>
       </c>
       <c r="B5680" t="s">
-        <v>1647</v>
+        <v>7992</v>
       </c>
     </row>
     <row r="5681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5681" t="s">
-        <v>7991</v>
+        <v>7993</v>
       </c>
       <c r="B5681" t="s">
-        <v>7992</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="5682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5682" t="s">
-        <v>7993</v>
+        <v>7994</v>
       </c>
       <c r="B5682" t="s">
-        <v>2323</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="5683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5683" t="s">
-        <v>7994</v>
+        <v>7995</v>
       </c>
       <c r="B5683" t="s">
-        <v>1715</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5684" t="s">
-        <v>7995</v>
+        <v>7996</v>
       </c>
       <c r="B5684" t="s">
-        <v>991</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="5685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5685" t="s">
-        <v>7996</v>
+        <v>7998</v>
       </c>
       <c r="B5685" t="s">
-        <v>7997</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5686" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5686" t="s">
+        <v>7999</v>
+      </c>
+      <c r="B5686" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5687" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5687" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B5687" t="s">
+        <v>7961</v>
+      </c>
+    </row>
+    <row r="5688" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5688" t="s">
+        <v>8000</v>
+      </c>
+      <c r="B5688" t="s">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="5689" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5689" t="s">
+        <v>8002</v>
+      </c>
+      <c r="B5689" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="5690" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5690" t="s">
+        <v>8003</v>
+      </c>
+      <c r="B5690" t="s">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="5691" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5691" t="s">
+        <v>8005</v>
+      </c>
+      <c r="B5691" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5692" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5692" t="s">
+        <v>8006</v>
+      </c>
+      <c r="B5692" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5693" t="s">
+        <v>8007</v>
+      </c>
+      <c r="B5693" t="s">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5694" t="s">
+        <v>8009</v>
+      </c>
+      <c r="B5694" t="s">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5695" t="s">
+        <v>8011</v>
+      </c>
+      <c r="B5695" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5696" t="s">
+        <v>8013</v>
+      </c>
+      <c r="B5696" t="s">
+        <v>8014</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5697" t="s">
+        <v>8015</v>
+      </c>
+      <c r="B5697" t="s">
+        <v>8016</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5698" t="s">
+        <v>8017</v>
+      </c>
+      <c r="B5698" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5699" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B5699" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5700" t="s">
+        <v>8018</v>
+      </c>
+      <c r="B5700" t="s">
+        <v>8024</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5701" t="s">
+        <v>8019</v>
+      </c>
+      <c r="B5701" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5702" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5702" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5703" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B5703" t="s">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5704" t="s">
+        <v>8021</v>
+      </c>
+      <c r="B5704" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5705" t="s">
+        <v>8022</v>
+      </c>
+      <c r="B5705" t="s">
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5706" t="s">
+        <v>8025</v>
+      </c>
+      <c r="B5706" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5707" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5707" t="s">
+        <v>7940</v>
+      </c>
+      <c r="B5707" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
